--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3030036.757497848</v>
+        <v>3027660.130550483</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8541127.360805275</v>
+        <v>8541127.360805277</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>248.5197538089128</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.2636416850876</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.94563726208663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202789</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.70319388811416</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>191.1874525866092</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45885325319686</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.90462188432743</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156795</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542834</v>
+        <v>115.5971804138459</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
-        <v>172.8704187577631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>59.31005804030049</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201.12525314008</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>832.1627361996682</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1977.864425180013</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.864425180013</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.864425180013</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.864425180013</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.725093204202</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167644</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688551</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1669.762144392295</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1300.799627451883</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.799627451883</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>915.0113748536392</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>504.0254700640316</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>88.32071978832045</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>88.32071978832045</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.762144392295</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.762144392295</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.762144392295</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,34 +4632,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>378.6078255973312</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>378.6078255973312</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
@@ -4808,13 +4808,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2237.137437478146</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>1906.074550134575</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1553.305894864461</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>168.0116152688576</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800312</v>
@@ -4960,7 +4960,7 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>349.6600800990973</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,19 +5598,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6555,13 +6555,13 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.0191461778176</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
         <v>489.9894131830887</v>
@@ -6847,13 +6847,13 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>969.6676110080573</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>969.6676110080573</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>403.0086152208354</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>403.0086152208354</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.8125159357153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>114.3555089013352</v>
+        <v>129.7511347056862</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111049</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
-        <v>52.83923663127405</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>80.9846548059234</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>753387.2334592879</v>
+        <v>753387.233459288</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011532</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846405</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
@@ -26326,34 +26326,34 @@
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,37 +26424,37 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731967</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731995</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426732008</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731966</v>
-      </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732039</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731996</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732004</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26522,46 +26522,46 @@
         <v>-644122.0518929872</v>
       </c>
       <c r="C6" t="n">
-        <v>470629.731682932</v>
+        <v>470629.7316829325</v>
       </c>
       <c r="D6" t="n">
         <v>470629.7316829322</v>
       </c>
       <c r="E6" t="n">
-        <v>69349.32586132096</v>
+        <v>69314.58793588539</v>
       </c>
       <c r="F6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.0295604308</v>
       </c>
       <c r="G6" t="n">
-        <v>576834.7674858668</v>
+        <v>576800.0295604308</v>
       </c>
       <c r="H6" t="n">
-        <v>576834.7674858667</v>
+        <v>576800.029560431</v>
       </c>
       <c r="I6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="J6" t="n">
-        <v>409229.589675884</v>
+        <v>409194.8517504485</v>
       </c>
       <c r="K6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.0295604313</v>
       </c>
       <c r="L6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.029560431</v>
       </c>
       <c r="M6" t="n">
-        <v>444227.4737569402</v>
+        <v>444192.7358315041</v>
       </c>
       <c r="N6" t="n">
-        <v>576834.7674858667</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="O6" t="n">
-        <v>576834.7674858664</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="P6" t="n">
-        <v>576834.7674858669</v>
+        <v>576800.0295604311</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.525496319549177</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745044</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670092</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>29.00671878435634</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15.47073239362456</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.787967845431</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>52.54759351446693</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627896</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193759</v>
+        <v>50.70941963095827</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,10 +32318,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33518,10 +33518,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>505.5526084942091</v>
+        <v>520.9482342985601</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,10 +35027,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489552</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
